--- a/업데이트히스토리_KR.xlsx
+++ b/업데이트히스토리_KR.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{7E9F06C8-2719-4032-AE7B-8C097CD0D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15CF3055-B04F-44D6-BD76-617C67EDE67F}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{7E9F06C8-2719-4032-AE7B-8C097CD0D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42231914-4ADF-472A-9B14-605A38000BEB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
-    <sheet name="230427 업데이트" sheetId="5" r:id="rId1"/>
+    <sheet name="230526 업데이트" sheetId="6" r:id="rId1"/>
+    <sheet name="230427 업데이트" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'230427 업데이트'!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230427 업데이트'!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'230526 업데이트'!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>추가일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -260,6 +262,10 @@
   </si>
   <si>
     <t>유물 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230526 업데이트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,14 +824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB5DA47-938A-4F8A-8135-4462D88CBA2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446E5648-E50E-4DB3-BFE3-1BB7808293F3}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -855,6 +861,161 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB5DA47-938A-4F8A-8135-4462D88CBA2A}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45043</v>
       </c>
@@ -1103,6 +1264,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1325,16 +1495,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E74B62-2DBD-4C1C-B16B-CC7AC8A4AE77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF651CFF-B26D-4703-AED7-F1DD539C8973}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1351,12 +1520,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E74B62-2DBD-4C1C-B16B-CC7AC8A4AE77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>